--- a/target/classes/loginTest.xlsx
+++ b/target/classes/loginTest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="380" yWindow="2860" windowWidth="28800" windowHeight="16200"/>
+    <workbookView xWindow="3480" yWindow="3300" windowWidth="28800" windowHeight="16140"/>
   </bookViews>
   <sheets>
     <sheet name="singlesend" sheetId="1" r:id="rId1"/>
@@ -66,10 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>正常登陆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用户名不存在</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,6 +114,10 @@
   </si>
   <si>
     <t>请输入密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机正常登陆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1347,7 +1347,7 @@
   <dimension ref="A1:IQ6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="2" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>5</v>
@@ -1397,16 +1397,16 @@
     </row>
     <row r="3" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>0</v>
@@ -1414,51 +1414,51 @@
     </row>
     <row r="4" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
